--- a/tables/ucim_expanded_wrong.xlsx
+++ b/tables/ucim_expanded_wrong.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sparsity</t>
+          <t>sparsity_necessary</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>explanation rate</t>
+          <t>necessary explanation rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>1-delta</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>0.015625</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <v>0.03125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.305</v>
+        <v>0.27</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
         <v>0.046875</v>
       </c>
       <c r="C42" t="n">
-        <v>0.335</v>
+        <v>0.31</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>0.0625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1342,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.078125</v>
+        <v>0.09375</v>
       </c>
       <c r="C44" t="n">
-        <v>0.345</v>
+        <v>0.33</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.345</v>
+        <v>0.33</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1-best</t>
+          <t>temporal</t>
         </is>
       </c>
     </row>
